--- a/res/page/统计分析/报表管理/VipChargePage.xlsx
+++ b/res/page/统计分析/报表管理/VipChargePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>别名</t>
   </si>
@@ -45,7 +45,7 @@
     <t>VIP统计报表</t>
   </si>
   <si>
-    <t>//span[text()='VIP统计报表']</t>
+    <t>//span[text()='月票统计报表']</t>
   </si>
   <si>
     <t>操作时间框</t>
@@ -109,8 +109,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,6 +135,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -142,6 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -151,6 +191,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +228,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -171,94 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,13 +287,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,169 +335,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,6 +546,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,21 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -558,41 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/VipChargePage.xlsx
+++ b/res/page/统计分析/报表管理/VipChargePage.xlsx
@@ -42,7 +42,7 @@
     <t>//span[text()='报表管理']</t>
   </si>
   <si>
-    <t>VIP统计报表</t>
+    <t>月票统计报表</t>
   </si>
   <si>
     <t>//span[text()='月票统计报表']</t>
@@ -69,7 +69,7 @@
     <t>选择停车场下拉框</t>
   </si>
   <si>
-    <t>//span[text()='请选择停车场']</t>
+    <t>//form[@class='form-inline']/span[1]//i</t>
   </si>
   <si>
     <t>选择停车场</t>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,17 +129,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,15 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,29 +228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,17 +236,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,53 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,45 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,26 +507,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,8 +529,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/VipChargePage.xlsx
+++ b/res/page/统计分析/报表管理/VipChargePage.xlsx
@@ -99,7 +99,7 @@
     <t>记录列表</t>
   </si>
   <si>
-    <t>//div[@id='vipChargeTable']</t>
+    <t>//div[contains(@id,'table-cache')]</t>
   </si>
 </sst>
 </file>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,59 +129,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,78 +228,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,6 +546,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,67 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/VipChargePage.xlsx
+++ b/res/page/统计分析/报表管理/VipChargePage.xlsx
@@ -87,7 +87,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认')or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>操作成功-提示</t>
@@ -129,15 +129,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,9 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,37 +173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,11 +187,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,22 +232,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,7 +250,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +287,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,19 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,133 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,17 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,16 +515,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +546,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -560,39 +593,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +613,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/统计分析/报表管理/VipChargePage.xlsx
+++ b/res/page/统计分析/报表管理/VipChargePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>操作成功-提示</t>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
